--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1277.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1277.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8653498179465161</v>
+        <v>1.128864169120789</v>
       </c>
       <c r="B1">
-        <v>1.561408988362541</v>
+        <v>2.098086357116699</v>
       </c>
       <c r="C1">
-        <v>5.402509293575125</v>
+        <v>10.04667663574219</v>
       </c>
       <c r="D1">
-        <v>3.682776368677163</v>
+        <v>2.500462055206299</v>
       </c>
       <c r="E1">
-        <v>1.48100474626155</v>
+        <v>1.298213124275208</v>
       </c>
     </row>
   </sheetData>
